--- a/美国选校推荐.xlsx
+++ b/美国选校推荐.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DDDE49-B13F-DF4C-90D8-FE7D3D5B5B6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E373F7-7B3B-0349-B363-3AE492F1F126}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" tabRatio="330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1519,30 +1519,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1637,18 +1619,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,6 +1795,222 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1879,6 +2065,60 @@
     <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1987,60 +2227,6 @@
     <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2203,544 +2389,220 @@
     <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2797,6 +2659,114 @@
     <xf numFmtId="164" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -3082,61 +3052,61 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0"/>
@@ -3166,61 +3136,61 @@
     </xf>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3280,118 +3250,118 @@
     <xf numFmtId="164" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3565,58 +3535,274 @@
     <xf numFmtId="164" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3673,477 +3859,249 @@
     <xf numFmtId="164" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="31" fillId="0" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4156,24 +4114,9 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="441" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4183,124 +4126,91 @@
     <xf numFmtId="164" fontId="37" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="441" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="22" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="31" fillId="22" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="22" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="22" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="10" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="4" borderId="11" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="4" borderId="12" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="4" borderId="13" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="3" borderId="11" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="3" borderId="12" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="3" borderId="13" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="11" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="12" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="0" borderId="13" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="34" fillId="0" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="1" xfId="441" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="782">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5365,480 +5275,481 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="57" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="8" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.1640625" customWidth="1"/>
-    <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="25.5" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="27" customWidth="1"/>
+    <col min="3" max="3" width="8" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="27" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.1640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="23" style="27" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="27" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.6640625" style="26" customWidth="1"/>
+    <col min="13" max="13" width="27.33203125" style="27" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="26">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="45"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:13" ht="16">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="48"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:13" ht="16">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="19"/>
+      <c r="E3" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="45"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="34.5" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="52" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="45"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="16">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51">
+      <c r="B5" s="18"/>
+      <c r="C5" s="19">
         <v>100</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="19"/>
+      <c r="E5" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="62">
+      <c r="F5" s="19">
         <v>10</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="45"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="1:13" ht="16">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="G6" s="50"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="45"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="25"/>
     </row>
     <row r="7" spans="1:13" ht="17">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="31" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="63" customHeight="1">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="13">
         <v>13</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="M8" s="13"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" ht="63" customHeight="1">
-      <c r="A9" s="60"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="13">
         <v>30</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M9" s="13"/>
+      <c r="M9" s="35"/>
     </row>
-    <row r="10" spans="1:13" s="39" customFormat="1" ht="89.25" customHeight="1">
-      <c r="A10" s="61"/>
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="1:13" s="42" customFormat="1" ht="89.25" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="27">
+      <c r="C10" s="13">
         <v>6</v>
       </c>
-      <c r="D10" s="27">
+      <c r="D10" s="13">
         <v>19</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="K10" s="33" t="s">
+      <c r="K10" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="L10" s="37" t="s">
+      <c r="L10" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M10" s="36" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A11" s="61"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="13">
         <v>10</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="13">
         <v>25</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="M11" s="13"/>
+      <c r="M11" s="35"/>
     </row>
     <row r="12" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A12" s="61"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="13">
         <v>10</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="13">
         <v>25</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="L12" s="12" t="s">
+      <c r="L12" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="13"/>
+      <c r="M12" s="35"/>
     </row>
-    <row r="13" spans="1:13" s="15" customFormat="1" ht="69" customHeight="1">
-      <c r="A13" s="61"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="1:13" s="42" customFormat="1" ht="69" customHeight="1">
+      <c r="A13" s="21"/>
+      <c r="B13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="13">
         <v>14</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="13">
         <v>25</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M13" s="14" t="s">
+      <c r="M13" s="36" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A14" s="61"/>
-      <c r="B14" s="6" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="13">
         <v>16</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="13">
         <v>6</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="L14" s="12" t="s">
+      <c r="L14" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="M14" s="13"/>
+      <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:13" s="36" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A15" s="61"/>
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A15" s="21"/>
+      <c r="B15" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="13">
         <v>17</v>
       </c>
-      <c r="D15" s="27">
+      <c r="D15" s="13">
         <v>20</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="29" t="s">
+      <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="30" t="s">
+      <c r="G15" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H15" s="31" t="s">
+      <c r="H15" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="I15" s="31" t="s">
+      <c r="I15" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="J15" s="32" t="s">
+      <c r="J15" s="34" t="s">
         <v>250</v>
       </c>
-      <c r="K15" s="33" t="s">
+      <c r="K15" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="8" t="s">
         <v>145</v>
       </c>
       <c r="M15" s="35" t="s">
@@ -5846,377 +5757,377 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="87" customHeight="1">
-      <c r="A16" s="61"/>
-      <c r="B16" s="6" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="13">
         <v>20</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="13">
         <v>13</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="H16" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="L16" s="12" t="s">
+      <c r="L16" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="M16" s="13" t="s">
+      <c r="M16" s="35" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="70.5" customHeight="1">
-      <c r="A17" s="61"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="13">
         <v>25</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="M17" s="13"/>
+      <c r="M17" s="35"/>
     </row>
-    <row r="18" spans="1:13" s="39" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A18" s="53" t="s">
+    <row r="18" spans="1:13" s="42" customFormat="1" ht="50.25" customHeight="1">
+      <c r="A18" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="13">
         <v>10</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="13">
         <v>30</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F18" s="29" t="s">
+      <c r="F18" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G18" s="30" t="s">
+      <c r="G18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="31" t="s">
+      <c r="H18" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="K18" s="33" t="s">
+      <c r="K18" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="36" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="62.25" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="41" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="13">
         <v>19</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="13">
         <v>49</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="L19" s="12" t="s">
+      <c r="L19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="13"/>
+      <c r="M19" s="35"/>
     </row>
     <row r="20" spans="1:13" ht="70.5" customHeight="1">
-      <c r="A20" s="54"/>
-      <c r="B20" s="6" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="13">
         <v>22</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="L20" s="12" t="s">
+      <c r="L20" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M20" s="13"/>
+      <c r="M20" s="35"/>
     </row>
-    <row r="21" spans="1:13" s="36" customFormat="1" ht="72.75" customHeight="1">
-      <c r="A21" s="54"/>
-      <c r="B21" s="26" t="s">
+    <row r="21" spans="1:13" ht="72.75" customHeight="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="13">
         <v>22</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="13">
         <v>20</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F21" s="29" t="s">
+      <c r="F21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G21" s="30" t="s">
+      <c r="G21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="31" t="s">
+      <c r="H21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="31" t="s">
+      <c r="I21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="33" t="s">
+      <c r="K21" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="L21" s="34" t="s">
+      <c r="L21" s="8" t="s">
         <v>34</v>
       </c>
       <c r="M21" s="35"/>
     </row>
     <row r="22" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="6" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="13">
         <v>30</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="13">
         <v>30</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="L22" s="12" t="s">
+      <c r="L22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="13"/>
+      <c r="M22" s="35"/>
     </row>
     <row r="23" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A23" s="54"/>
-      <c r="B23" s="6" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="13">
         <v>33</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="13">
         <v>30</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M23" s="13"/>
+      <c r="M23" s="35"/>
     </row>
     <row r="24" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A24" s="54"/>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C24" s="23">
+      <c r="C24" s="13">
         <v>33</v>
       </c>
-      <c r="D24" s="23">
+      <c r="D24" s="13">
         <v>49</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="H24" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="L24" s="12" t="s">
+      <c r="L24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="13"/>
+      <c r="M24" s="35"/>
     </row>
-    <row r="25" spans="1:13" s="36" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A25" s="54"/>
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="1:13" ht="76.5" customHeight="1">
+      <c r="A25" s="38"/>
+      <c r="B25" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="27">
+      <c r="C25" s="13">
         <v>37</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="13">
         <v>16</v>
       </c>
-      <c r="E25" s="28" t="s">
+      <c r="E25" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="29" t="s">
+      <c r="F25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G25" s="30" t="s">
+      <c r="G25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H25" s="31" t="s">
+      <c r="H25" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="L25" s="34" t="s">
+      <c r="L25" s="8" t="s">
         <v>174</v>
       </c>
       <c r="M25" s="35" t="s">
@@ -6224,186 +6135,186 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A26" s="54"/>
-      <c r="B26" s="6" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="13">
         <v>38</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="13">
         <v>37</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="9" t="s">
+      <c r="H26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="L26" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="M26" s="13"/>
+      <c r="M26" s="35"/>
     </row>
     <row r="27" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A27" s="54"/>
-      <c r="B27" s="41" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="13">
         <v>42</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="13">
         <v>49</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="9" t="s">
+      <c r="I27" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L27" s="12" t="s">
+      <c r="L27" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="13"/>
+      <c r="M27" s="35"/>
     </row>
     <row r="28" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A28" s="54"/>
-      <c r="B28" s="6" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="13">
         <v>59</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="13">
         <v>30</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="12" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="13"/>
+      <c r="M28" s="35"/>
     </row>
     <row r="29" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A29" s="55"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="13">
         <v>70</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="13">
         <v>29</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="I29" s="9" t="s">
+      <c r="I29" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="L29" s="21" t="s">
+      <c r="L29" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="M29" s="13"/>
+      <c r="M29" s="35"/>
     </row>
-    <row r="30" spans="1:13" s="36" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A30" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="13">
         <v>35</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="13">
         <v>49</v>
       </c>
-      <c r="E30" s="28" t="s">
+      <c r="E30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G30" s="30" t="s">
+      <c r="G30" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H30" s="31" t="s">
+      <c r="H30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="31" t="s">
+      <c r="I30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="K30" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="L30" s="34" t="s">
+      <c r="L30" s="8" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="35" t="s">
@@ -6411,233 +6322,240 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="13">
         <v>42</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="13">
         <v>68</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I31" s="9" t="s">
+      <c r="I31" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M31" s="13"/>
+      <c r="M31" s="35"/>
     </row>
-    <row r="32" spans="1:13" s="36" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A32" s="57"/>
-      <c r="B32" s="26" t="s">
+    <row r="32" spans="1:13" ht="50.25" customHeight="1">
+      <c r="A32" s="38"/>
+      <c r="B32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="13">
         <v>44</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="13">
         <v>49</v>
       </c>
-      <c r="E32" s="28" t="s">
+      <c r="E32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="G32" s="30" t="s">
+      <c r="G32" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I32" s="31" t="s">
+      <c r="I32" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="L32" s="63" t="s">
+      <c r="L32" s="40" t="s">
         <v>256</v>
       </c>
-      <c r="M32" s="38" t="s">
+      <c r="M32" s="36" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A33" s="57"/>
-      <c r="B33" s="6" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="13">
         <v>54</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="13">
         <v>68</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="I33" s="9" t="s">
+      <c r="I33" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="M33" s="13"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="1:13" ht="60.75" customHeight="1">
-      <c r="A34" s="57"/>
-      <c r="B34" s="6" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C34" s="24">
+      <c r="C34" s="14">
         <v>62</v>
       </c>
-      <c r="D34" s="24">
+      <c r="D34" s="14">
         <v>37</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="H34" s="18" t="s">
+      <c r="H34" s="41" t="s">
         <v>228</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="M34" s="20" t="s">
+      <c r="M34" s="11" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A35" s="57"/>
-      <c r="B35" s="41" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="13">
         <v>63</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="13">
         <v>75</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="I35" s="9" t="s">
+      <c r="I35" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M35" s="13" t="s">
+      <c r="M35" s="35" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="50.25" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="6" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="13">
         <v>79</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="13">
         <v>40</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="34" t="s">
         <v>235</v>
       </c>
-      <c r="K36" s="3"/>
-      <c r="L36" s="12" t="s">
+      <c r="K36" s="1"/>
+      <c r="L36" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="M36" s="13"/>
+      <c r="M36" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A2:C2"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="A18:A29"/>
@@ -6649,13 +6567,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
